--- a/excel/sablonlar/customer_mekmer.xlsx
+++ b/excel/sablonlar/customer_mekmer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870ACB4C-533A-46A6-9F36-D0EB1844F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787FC57B-7525-460C-AC98-D7C43412A269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,19 +69,25 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -116,16 +122,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -134,6 +140,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,49 +422,49 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="4"/>
-    <col min="3" max="3" width="33.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="4"/>
-    <col min="6" max="6" width="15.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="2"/>
+    <col min="3" max="3" width="33.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="2"/>
+    <col min="6" max="6" width="15.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="22.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
